--- a/simulation_results_case2b.xlsx
+++ b/simulation_results_case2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/CITLResearchGroup/Delte dokumenter/General/09 - Personal/Alexandros/MUDP/Development/Digital_Twin_for_emissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_13C9B627D03424709C4EBBDAB54ADE7721165E66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58442F1F-A09F-48C9-B2AE-E41E31C20409}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_13C9B627D03424709C4EBBDAB54ADE7721165E66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6B5D28-80B3-45D2-9651-F95615A0429C}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Truck Data" sheetId="1" r:id="rId1"/>
@@ -1196,35 +1196,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.47265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.05078125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7890625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.05078125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.47265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.62890625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>14.619472</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1423,16 +1422,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>6.6169450000000012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>2.9958450000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1513,23 +1512,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.05078125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>82.254969999999986</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1656,16 +1654,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1699,7 +1696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1733,7 +1730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1759,11 +1756,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.333333333333333</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.333333333333333</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.8712170156452066</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2680787155386097</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.4921653915069242</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.72123904899059</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6.1520767068599804</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6.1520767068599804</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6.1520767068599804</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7.8536232884685688</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.3606055434107551</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>48.22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5.4068196460910789</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7.1899475405462852</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.5848523506258001</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.5848523506258001</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>70.930000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.5848523506258001</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.5385315778909643</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>73.150000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6.4258092310373058</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8.7982307141161229</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>85.17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.0351241076169639</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>87.02</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5.942862002437054</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8.7195980357739646</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>99.37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2.0529313691072981</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>106.07</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2.0529313691072981</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>106.73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4.1285319424238507</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>109.45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6.143790621756418</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>111.48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8.3102668500570456</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>121.57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3.001095549851144</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>124.25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5.1776117219692406</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>134.38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6.9629019573334219</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>136.22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.29623529066675491</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>141.19999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.29623529066675491</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>141.87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3.1522864796643422</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>146.43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.6924054620604183</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5.9266661717507416</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>158.62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>7.9358890194122367</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>160.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3.5051644416911798</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>170.57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.6174525616171849</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>173.33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6174525616171849</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>176.33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5.6174525616171849</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>7.0835654135252728</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>182.63</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.6940802615204098</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>185.9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4.7788448121664073</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>195.32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6.7985011091426726</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>197.87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2.2193958324570509</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>208.1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3.9453371927935379</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>210.28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3.9453371927935379</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>211.47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3.9453371927935379</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>212.13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.3578384483279109</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>220.25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>8.1470366478718006</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>222.95</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4.3142250605718608</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>232.48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6.1460676216477843</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>235.38</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>7.2007122268930166</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>244.68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.53404556022634964</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>246.6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.53404556022634964</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>247.27</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2.314031347246603</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>247.63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4.1573227885719231</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>257.52</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6.5136808926078693</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>259.60000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>8.353744733546387</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>270.43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4.5342665280170049</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>272.27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4.5342665280170049</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>281.73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4.5342665280170049</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>282.39999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7.0441214818449858</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>282.48</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2.2303504656421929</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>284.47000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>4.423764847866825</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>294.89999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6.6869192129605546</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>296.95</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2.3026600880420842</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>307.27999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4.7408473554868236</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>309.52999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>4.7408473554868236</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>316.87</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4.7408473554868236</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>317.52999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>6.9316059510525516</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>319.5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2.0864228624150032</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4.016981648639633</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>332.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>6.4350469466670237</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>334.32</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7.8509644114349868</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>344.82</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>3.052655716298637</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>347.23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>3.052655716298637</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>3.052655716298637</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>352.67</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4.8388395629638712</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>357.02</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>6.108804325507152</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>359.28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>7.8440893817254604</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>369.78</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2.1151336477631379</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>371.87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4.3580419104813561</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>382.65</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>6.4111682628036473</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>384.02</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>6.4111682628036473</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>387.13</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>6.4111682628036473</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>387.8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8.7487892293955039</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>395.4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>4.1918596885603074</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>396.1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5.7856607713495913</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>7.769228639752999</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>408.62</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2.1569836809751859</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>420.08</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>4.2418498197083387</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>420.92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>4.2418498197083387</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>422.27</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>4.2418498197083387</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>422.93</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5.7726268649660284</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>432.45</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>8.0535202010596016</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>433.57</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3.6769695228074561</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>444.48</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>6.4748044764504122</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>446.4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9.4558545444086111</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>457.38</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2.7891878777419441</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>457.4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2.7891878777419441</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>458.07</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>4.5804313064950906</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>459.32</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>7.3275570525223328</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>469.8</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2.6343206430134112</v>
       </c>
@@ -2620,16 +2623,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2717,7 +2726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2805,7 +2814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2813,7 +2822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2821,7 +2830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2997,7 +3006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3013,7 +3022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3021,7 +3030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3077,7 +3086,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3149,7 +3158,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3197,7 +3206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3221,7 +3230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3237,7 +3246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3253,7 +3262,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3261,7 +3270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3301,7 +3310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3341,7 +3350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3381,7 +3390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3413,7 +3422,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3429,7 +3438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3445,7 +3454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3461,7 +3470,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3557,7 +3566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3565,7 +3574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3597,7 +3606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3605,7 +3614,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3637,7 +3646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3717,7 +3726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3741,7 +3750,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3773,7 +3782,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3781,7 +3790,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3821,7 +3830,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3829,7 +3838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3837,7 +3846,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3861,7 +3870,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3877,7 +3886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3893,7 +3902,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3909,7 +3918,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3925,7 +3934,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3949,7 +3958,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3981,7 +3990,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3997,7 +4006,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4029,7 +4038,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4045,7 +4054,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4053,7 +4062,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4085,7 +4094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4117,7 +4126,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4133,7 +4142,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4141,7 +4150,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4157,7 +4166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4173,7 +4182,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4197,7 +4206,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4293,7 +4302,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4309,7 +4318,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4341,7 +4350,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4372,8 +4381,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D40B40838B1139498AAB1AE2830B4A9D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f6571d5659a324dcf167c48ad66a0f2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37543332-2da3-439b-bc98-209254b30f00" xmlns:ns3="830a31a7-89b5-416e-b6e5-e0fe14d58a94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023d8e4a42648ea637098906c8a6ab1e" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37543332-2da3-439b-bc98-209254b30f00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="830a31a7-89b5-416e-b6e5-e0fe14d58a94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D40B40838B1139498AAB1AE2830B4A9D" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="79d0be0e660dbfe1199aced984f6c20c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37543332-2da3-439b-bc98-209254b30f00" xmlns:ns3="830a31a7-89b5-416e-b6e5-e0fe14d58a94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffb1d47b889e36d1b69e90153213741a" ns2:_="" ns3:_="">
     <xsd:import namespace="37543332-2da3-439b-bc98-209254b30f00"/>
     <xsd:import namespace="830a31a7-89b5-416e-b6e5-e0fe14d58a94"/>
     <xsd:element name="properties">
@@ -4425,7 +4445,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b2102423-6c9a-45d0-aa71-0069027da28d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Billedmærker" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b2102423-6c9a-45d0-aa71-0069027da28d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -4474,7 +4494,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4493,7 +4513,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Delt med detaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -4510,8 +4530,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4600,17 +4620,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37543332-2da3-439b-bc98-209254b30f00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="830a31a7-89b5-416e-b6e5-e0fe14d58a94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E7D304-6831-4A17-B601-E8E5A0965031}">
   <ds:schemaRefs>
@@ -4620,9 +4629,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DED1F09F-54B6-4149-B867-A419A74EA4EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE275A9D-A95C-4DF9-8D4F-1658752D6941}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37543332-2da3-439b-bc98-209254b30f00"/>
+    <ds:schemaRef ds:uri="830a31a7-89b5-416e-b6e5-e0fe14d58a94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE275A9D-A95C-4DF9-8D4F-1658752D6941}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5A34D5-6506-4AFF-A6C5-6222FA11637A}"/>
 </file>